--- a/LinuxCommand.xlsx
+++ b/LinuxCommand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA0CF43-00E7-479A-8883-86EA893E2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBA0477-71D0-4AD4-93C4-47453C2CD0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Commands</t>
   </si>
@@ -151,13 +151,106 @@
   </si>
   <si>
     <t>It is used to change or switch the current working directory.</t>
+  </si>
+  <si>
+    <t>Displays current username.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Returns users identity</t>
+  </si>
+  <si>
+    <t>hostname</t>
+  </si>
+  <si>
+    <t>Sets or prints the name of current host system.</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>Prints basic information about the operating system name and system hardware.</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Returns working directory name.</t>
+  </si>
+  <si>
+    <t>ifconfig</t>
+  </si>
+  <si>
+    <t>The ifconfig utility is used to assign or to view an address to a network interface and/or configure network interface parameters.</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>Ip is a utility to show or manipulate routing, network devices, interfaces and tunnels.</t>
+  </si>
+  <si>
+    <t>netstat</t>
+  </si>
+  <si>
+    <t>Shows network status.</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Another utility to investigate sockets.</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>Shows process status.</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>Displays who is logged in.</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Prints environment or sets and executes command.</t>
+  </si>
+  <si>
+    <t>lsblk</t>
+  </si>
+  <si>
+    <t>Lists block devices.</t>
+  </si>
+  <si>
+    <t>lsusb</t>
+  </si>
+  <si>
+    <t>Lists USB devices</t>
+  </si>
+  <si>
+    <t>lsof</t>
+  </si>
+  <si>
+    <t>Lists opened files.</t>
+  </si>
+  <si>
+    <t>lspci</t>
+  </si>
+  <si>
+    <t>Lists PCI devices.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +277,14 @@
       <color rgb="FF333333"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -261,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -281,6 +382,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,6 +843,134 @@
         <v>41</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
